--- a/data/trans_orig/Q5411-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{130366D8-CF87-4958-89B9-7B4BEF2ACBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{686B8C57-2C37-4465-9579-7EDC01AF9B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD5B73CD-866A-4DF0-8214-7A8C14F228EF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{557409E2-11CC-4888-8DA2-45B052BF2A2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>20,59%</t>
+    <t>22,62%</t>
   </si>
   <si>
     <t>8,29%</t>
@@ -92,7 +92,10 @@
     <t>6,13%</t>
   </si>
   <si>
-    <t>16,17%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -101,7 +104,7 @@
     <t>95,85%</t>
   </si>
   <si>
-    <t>79,41%</t>
+    <t>77,38%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +119,10 @@
     <t>93,87%</t>
   </si>
   <si>
-    <t>83,83%</t>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,163 +134,163 @@
     <t>11,48%</t>
   </si>
   <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
     <t>6,09%</t>
   </si>
   <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>93,91%</t>
   </si>
   <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
     <t>91,31%</t>
   </si>
   <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -293,1027 +299,1009 @@
     <t>6,52%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>90,49%</t>
   </si>
   <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>91,68%</t>
   </si>
   <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>15,05%</t>
   </si>
   <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
   </si>
   <si>
     <t>84,95%</t>
   </si>
   <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>88,44%</t>
   </si>
   <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>91,25%</t>
   </si>
   <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
+    <t>6,12%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>8,7%</t>
   </si>
   <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>92,35%</t>
   </si>
   <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>93,88%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
+    <t>91,3%</t>
   </si>
   <si>
     <t>89,16%</t>
   </si>
   <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0441BB13-09C6-4AC7-994F-75A6BC7E8E80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F469D2-3C6B-4E72-A6FD-352E5C11130D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1882,16 +1870,16 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>24</v>
@@ -1900,13 +1888,13 @@
         <v>25280</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -1915,13 +1903,13 @@
         <v>22309</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -1930,13 +1918,13 @@
         <v>47589</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,13 +1939,13 @@
         <v>26374</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -1966,13 +1954,13 @@
         <v>24325</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -1981,18 +1969,18 @@
         <v>50699</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2004,13 +1992,13 @@
         <v>10172</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -2019,13 +2007,13 @@
         <v>12203</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -2034,19 +2022,19 @@
         <v>22375</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>83</v>
@@ -2055,13 +2043,13 @@
         <v>78443</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>112</v>
@@ -2070,28 +2058,28 @@
         <v>113008</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>195</v>
       </c>
       <c r="N8" s="7">
-        <v>191450</v>
+        <v>191451</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,13 +2094,13 @@
         <v>88615</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>123</v>
@@ -2121,33 +2109,33 @@
         <v>125211</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>217</v>
       </c>
       <c r="N9" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2159,13 +2147,13 @@
         <v>5841</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -2174,13 +2162,13 @@
         <v>18959</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -2189,19 +2177,19 @@
         <v>24801</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>140</v>
@@ -2210,13 +2198,13 @@
         <v>140048</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>153</v>
@@ -2225,13 +2213,13 @@
         <v>163721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>293</v>
@@ -2240,13 +2228,13 @@
         <v>303767</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2249,13 @@
         <v>145889</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>170</v>
@@ -2276,13 +2264,13 @@
         <v>182680</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>316</v>
@@ -2291,18 +2279,18 @@
         <v>328568</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2314,13 +2302,13 @@
         <v>1882</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -2329,13 +2317,13 @@
         <v>11801</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2344,19 +2332,19 @@
         <v>13683</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>100</v>
@@ -2365,13 +2353,13 @@
         <v>102489</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
         <v>129</v>
@@ -2380,13 +2368,13 @@
         <v>124049</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>229</v>
@@ -2395,13 +2383,13 @@
         <v>226538</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2404,13 @@
         <v>104371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>140</v>
@@ -2431,13 +2419,13 @@
         <v>135850</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>242</v>
@@ -2446,18 +2434,18 @@
         <v>240221</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2469,13 +2457,13 @@
         <v>8942</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -2484,13 +2472,13 @@
         <v>19852</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -2499,19 +2487,19 @@
         <v>28794</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>146</v>
@@ -2520,13 +2508,13 @@
         <v>128275</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>182</v>
@@ -2535,13 +2523,13 @@
         <v>188925</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>328</v>
@@ -2550,13 +2538,13 @@
         <v>317201</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2559,13 @@
         <v>137217</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>200</v>
@@ -2586,13 +2574,13 @@
         <v>208777</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>356</v>
@@ -2601,13 +2589,13 @@
         <v>345995</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2612,13 @@
         <v>27931</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -2639,13 +2627,13 @@
         <v>64832</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -2654,19 +2642,19 @@
         <v>92763</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>493</v>
@@ -2675,13 +2663,13 @@
         <v>474535</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>602</v>
@@ -2690,13 +2678,13 @@
         <v>612010</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>1095</v>
@@ -2705,13 +2693,13 @@
         <v>1086545</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2714,13 @@
         <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>661</v>
@@ -2741,13 +2729,13 @@
         <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1184</v>
@@ -2756,18 +2744,18 @@
         <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2788,7 +2776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508F77EF-078A-4FF1-BBAF-8BE22BE26824}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B617EF6-6281-4CC4-8DA4-5EF8E0CEA095}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2805,7 +2793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2912,13 +2900,13 @@
         <v>1780</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2927,13 +2915,13 @@
         <v>3476</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2942,19 +2930,19 @@
         <v>5256</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>22</v>
@@ -2963,13 +2951,13 @@
         <v>19418</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -2978,13 +2966,13 @@
         <v>21718</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -2993,13 +2981,13 @@
         <v>41136</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3002,13 @@
         <v>21198</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -3029,13 +3017,13 @@
         <v>25194</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -3044,18 +3032,18 @@
         <v>46392</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3067,13 +3055,13 @@
         <v>8566</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -3082,13 +3070,13 @@
         <v>28732</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -3097,19 +3085,19 @@
         <v>37298</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>97</v>
@@ -3118,13 +3106,13 @@
         <v>109784</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>107</v>
@@ -3133,13 +3121,13 @@
         <v>112860</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>204</v>
@@ -3148,13 +3136,13 @@
         <v>222644</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3157,13 @@
         <v>118350</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>134</v>
@@ -3184,13 +3172,13 @@
         <v>141592</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>239</v>
@@ -3199,18 +3187,18 @@
         <v>259942</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3222,13 +3210,13 @@
         <v>22877</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -3237,13 +3225,13 @@
         <v>53522</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -3252,19 +3240,19 @@
         <v>76399</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>118</v>
@@ -3273,13 +3261,13 @@
         <v>132001</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="H11" s="7">
         <v>129</v>
@@ -3324,13 +3312,13 @@
         <v>154878</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>177</v>
@@ -3339,13 +3327,13 @@
         <v>191420</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>315</v>
@@ -3354,18 +3342,18 @@
         <v>346298</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3407,19 +3395,19 @@
         <v>47642</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>82</v>
@@ -3428,13 +3416,13 @@
         <v>92756</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>96</v>
@@ -3443,13 +3431,13 @@
         <v>104219</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>178</v>
@@ -3458,13 +3446,13 @@
         <v>196975</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3467,13 @@
         <v>103598</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>129</v>
@@ -3494,13 +3482,13 @@
         <v>141019</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>219</v>
@@ -3509,18 +3497,18 @@
         <v>244617</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3532,13 +3520,13 @@
         <v>17391</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -3547,13 +3535,13 @@
         <v>40553</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -3562,19 +3550,19 @@
         <v>57944</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>132</v>
@@ -3583,13 +3571,13 @@
         <v>144222</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -3598,13 +3586,13 @@
         <v>203197</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>325</v>
@@ -3634,13 +3622,13 @@
         <v>161613</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>231</v>
@@ -3649,13 +3637,13 @@
         <v>243750</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>378</v>
@@ -3664,13 +3652,13 @@
         <v>405363</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,7 +3717,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>451</v>
@@ -3789,13 +3777,13 @@
         <v>559637</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>694</v>
@@ -3804,13 +3792,13 @@
         <v>742975</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1198</v>
@@ -3819,18 +3807,18 @@
         <v>1302612</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3851,7 +3839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EED846D-2FC9-4E57-B4C3-97068BE1D81B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8645B5-B1A2-4101-8C51-D60B4E7B0329}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4008,16 +3996,16 @@
         <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>20</v>
@@ -4026,13 +4014,13 @@
         <v>17921</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4041,13 +4029,13 @@
         <v>18181</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -4056,13 +4044,13 @@
         <v>36102</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,13 +4065,13 @@
         <v>21688</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -4092,13 +4080,13 @@
         <v>23439</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -4107,18 +4095,18 @@
         <v>45127</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4130,13 +4118,13 @@
         <v>10968</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -4145,13 +4133,13 @@
         <v>22344</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -4160,19 +4148,19 @@
         <v>33312</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>111</v>
@@ -4181,13 +4169,13 @@
         <v>104078</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>116</v>
@@ -4196,13 +4184,13 @@
         <v>127607</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>227</v>
@@ -4211,13 +4199,13 @@
         <v>231685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4220,13 @@
         <v>115046</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>135</v>
@@ -4247,13 +4235,13 @@
         <v>149951</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>259</v>
@@ -4262,18 +4250,18 @@
         <v>264997</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4285,13 +4273,13 @@
         <v>12051</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -4300,13 +4288,13 @@
         <v>24053</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -4315,19 +4303,19 @@
         <v>36103</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>161</v>
@@ -4336,13 +4324,13 @@
         <v>152890</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>115</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>164</v>
@@ -4351,13 +4339,13 @@
         <v>195110</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>325</v>
@@ -4366,13 +4354,13 @@
         <v>348001</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4375,13 @@
         <v>164941</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>182</v>
@@ -4402,13 +4390,13 @@
         <v>219163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>357</v>
@@ -4417,18 +4405,18 @@
         <v>384104</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4440,13 +4428,13 @@
         <v>9654</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -4455,13 +4443,13 @@
         <v>21734</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -4470,19 +4458,19 @@
         <v>31387</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>104</v>
@@ -4491,13 +4479,13 @@
         <v>105381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>101</v>
@@ -4506,13 +4494,13 @@
         <v>120862</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>205</v>
@@ -4521,13 +4509,13 @@
         <v>226244</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4530,13 @@
         <v>115035</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>118</v>
@@ -4557,13 +4545,13 @@
         <v>142596</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>232</v>
@@ -4572,18 +4560,18 @@
         <v>257631</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4595,13 +4583,13 @@
         <v>11415</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4610,13 +4598,13 @@
         <v>29298</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -4625,19 +4613,19 @@
         <v>40714</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>178</v>
@@ -4646,13 +4634,13 @@
         <v>163203</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
         <v>176</v>
@@ -4661,13 +4649,13 @@
         <v>213483</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>354</v>
@@ -4676,13 +4664,13 @@
         <v>376686</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4685,13 @@
         <v>174618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>198</v>
@@ -4712,13 +4700,13 @@
         <v>242781</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>388</v>
@@ -4727,13 +4715,13 @@
         <v>417400</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4738,13 @@
         <v>47855</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -4765,13 +4753,13 @@
         <v>102686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>33</v>
+        <v>318</v>
       </c>
       <c r="M19" s="7">
         <v>133</v>
@@ -4780,19 +4768,19 @@
         <v>150541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>574</v>
@@ -4801,13 +4789,13 @@
         <v>543473</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>575</v>
@@ -4816,13 +4804,13 @@
         <v>675245</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>1149</v>
@@ -4831,13 +4819,13 @@
         <v>1218718</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4840,13 @@
         <v>591328</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>655</v>
@@ -4867,13 +4855,13 @@
         <v>777931</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1282</v>
@@ -4882,18 +4870,18 @@
         <v>1369259</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4914,7 +4902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38C40A0-B6B4-4130-89DF-D0A0D44BC193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97F169A-05AB-42F2-BAE0-054DFB23B2E3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4931,7 +4919,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5038,13 +5026,13 @@
         <v>1441</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5053,13 +5041,13 @@
         <v>8470</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -5068,19 +5056,19 @@
         <v>9910</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>44</v>
@@ -5089,13 +5077,13 @@
         <v>28223</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>91</v>
@@ -5104,13 +5092,13 @@
         <v>36951</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="M5" s="7">
         <v>135</v>
@@ -5119,13 +5107,13 @@
         <v>65175</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5128,13 @@
         <v>29664</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>112</v>
@@ -5155,13 +5143,13 @@
         <v>45421</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>159</v>
@@ -5170,18 +5158,18 @@
         <v>75085</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5193,10 +5181,10 @@
         <v>17408</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>342</v>
+        <v>111</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>343</v>
@@ -5208,13 +5196,13 @@
         <v>26581</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>89</v>
@@ -5223,10 +5211,10 @@
         <v>43989</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>348</v>
@@ -5235,7 +5223,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>179</v>
@@ -5244,13 +5232,13 @@
         <v>107569</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>350</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>272</v>
@@ -5259,13 +5247,13 @@
         <v>120638</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M8" s="7">
         <v>451</v>
@@ -5274,13 +5262,13 @@
         <v>228207</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5283,13 @@
         <v>124977</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>334</v>
@@ -5310,13 +5298,13 @@
         <v>147219</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>540</v>
@@ -5325,18 +5313,18 @@
         <v>272196</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5348,13 +5336,13 @@
         <v>16094</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -5363,13 +5351,13 @@
         <v>40147</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -5378,19 +5366,19 @@
         <v>56240</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>230</v>
@@ -5399,10 +5387,10 @@
         <v>157752</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>366</v>
@@ -5450,13 +5438,13 @@
         <v>173846</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>448</v>
@@ -5465,13 +5453,13 @@
         <v>242510</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>702</v>
@@ -5480,18 +5468,18 @@
         <v>416356</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5503,13 +5491,13 @@
         <v>7785</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>373</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -5518,10 +5506,10 @@
         <v>22503</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>377</v>
@@ -5545,7 +5533,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>184</v>
@@ -5554,13 +5542,13 @@
         <v>140405</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>254</v>
@@ -5569,13 +5557,13 @@
         <v>258611</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>385</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>438</v>
@@ -5605,13 +5593,13 @@
         <v>148190</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>288</v>
@@ -5620,13 +5608,13 @@
         <v>281114</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>481</v>
@@ -5635,18 +5623,18 @@
         <v>429305</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5700,7 +5688,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>311</v>
@@ -5760,13 +5748,13 @@
         <v>220244</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>523</v>
@@ -5775,13 +5763,13 @@
         <v>308890</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>850</v>
@@ -5790,13 +5778,13 @@
         <v>529134</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,7 +5807,7 @@
         <v>408</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>88</v>
       </c>
       <c r="H19" s="7">
         <v>249</v>
@@ -5828,13 +5816,13 @@
         <v>133411</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>411</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>283</v>
       </c>
       <c r="M19" s="7">
         <v>328</v>
@@ -5843,19 +5831,19 @@
         <v>186728</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>948</v>
@@ -5864,13 +5852,13 @@
         <v>643605</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>417</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>1456</v>
@@ -5879,13 +5867,13 @@
         <v>891742</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>292</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>2404</v>
@@ -5894,13 +5882,13 @@
         <v>1535346</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5903,13 @@
         <v>696921</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>1705</v>
@@ -5930,13 +5918,13 @@
         <v>1025153</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>2732</v>
@@ -5945,18 +5933,18 @@
         <v>1722074</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5411-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{686B8C57-2C37-4465-9579-7EDC01AF9B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D62E06E-AF8F-4923-B5D8-254663E5223A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{557409E2-11CC-4888-8DA2-45B052BF2A2F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{21884108-151E-4410-9F80-6970FF89E1D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Necesita ayuda</t>
@@ -80,22 +80,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,62%</t>
+    <t>19,99%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>24,53%</t>
+    <t>24,43%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -104,7 +104,7 @@
     <t>95,85%</t>
   </si>
   <si>
-    <t>77,38%</t>
+    <t>80,01%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,1093 +113,1099 @@
     <t>91,71%</t>
   </si>
   <si>
-    <t>75,47%</t>
+    <t>75,57%</t>
   </si>
   <si>
     <t>93,87%</t>
   </si>
   <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>11,48%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>5,44%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
+    <t>93,76%</t>
   </si>
   <si>
     <t>92,45%</t>
   </si>
   <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>6,09%</t>
+    <t>5,74%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>3,1%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
   </si>
   <si>
     <t>9,3%</t>
   </si>
   <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
   </si>
   <si>
     <t>90,7%</t>
   </si>
   <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,52%</t>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>97,39%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
   </si>
   <si>
     <t>88,98%</t>
@@ -1713,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F469D2-3C6B-4E72-A6FD-352E5C11130D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68713381-ECE7-46FD-A62F-6B5C0C47E5E6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2070,7 +2076,7 @@
         <v>195</v>
       </c>
       <c r="N8" s="7">
-        <v>191451</v>
+        <v>191450</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -2121,7 +2127,7 @@
         <v>217</v>
       </c>
       <c r="N9" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -2493,7 +2499,7 @@
         <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2514,13 @@
         <v>128275</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>182</v>
@@ -2523,13 +2529,13 @@
         <v>188925</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>328</v>
@@ -2538,13 +2544,13 @@
         <v>317201</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2618,13 @@
         <v>27931</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -2627,13 +2633,13 @@
         <v>64832</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -2642,13 +2648,13 @@
         <v>92763</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2669,13 @@
         <v>474535</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>602</v>
@@ -2678,13 +2684,13 @@
         <v>612010</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>1095</v>
@@ -2693,13 +2699,13 @@
         <v>1086545</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,7 +2761,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2776,7 +2782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B617EF6-6281-4CC4-8DA4-5EF8E0CEA095}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A585D9DF-5988-4784-A7B7-C325F9950A39}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2793,7 +2799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2900,13 +2906,13 @@
         <v>1780</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2915,13 +2921,13 @@
         <v>3476</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2930,13 +2936,13 @@
         <v>5256</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,10 +2957,10 @@
         <v>19418</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -2966,13 +2972,13 @@
         <v>21718</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -2981,13 +2987,13 @@
         <v>41136</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3061,13 @@
         <v>8566</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -3070,13 +3076,13 @@
         <v>28732</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -3085,13 +3091,13 @@
         <v>37298</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3112,13 @@
         <v>109784</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>107</v>
@@ -3121,13 +3127,13 @@
         <v>112860</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>204</v>
@@ -3136,13 +3142,13 @@
         <v>222644</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3216,13 @@
         <v>22877</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -3225,13 +3231,13 @@
         <v>53522</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -3240,13 +3246,13 @@
         <v>76399</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3267,13 @@
         <v>132001</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H11" s="7">
         <v>129</v>
@@ -3395,13 +3401,13 @@
         <v>47642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3422,13 @@
         <v>92756</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>96</v>
@@ -3431,13 +3437,13 @@
         <v>104219</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>178</v>
@@ -3446,13 +3452,13 @@
         <v>196975</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3526,13 @@
         <v>17391</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -3535,13 +3541,13 @@
         <v>40553</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -3550,13 +3556,13 @@
         <v>57944</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3577,13 @@
         <v>144222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -3586,13 +3592,13 @@
         <v>203197</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>325</v>
@@ -3601,13 +3607,13 @@
         <v>347419</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3681,13 @@
         <v>61456</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>149</v>
@@ -3690,13 +3696,13 @@
         <v>163082</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -3705,13 +3711,13 @@
         <v>224538</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3732,13 @@
         <v>498181</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>545</v>
@@ -3741,13 +3747,13 @@
         <v>579893</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>996</v>
@@ -3756,13 +3762,13 @@
         <v>1078074</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,7 +3824,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3839,7 +3845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8645B5-B1A2-4101-8C51-D60B4E7B0329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70848D97-1303-4FCA-BD40-7F8F13A65D89}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3856,7 +3862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3963,13 +3969,13 @@
         <v>3767</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3978,13 +3984,13 @@
         <v>5258</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3993,13 +3999,13 @@
         <v>9025</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4020,13 @@
         <v>17921</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4029,13 +4035,13 @@
         <v>18181</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -4044,13 +4050,13 @@
         <v>36102</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4124,13 @@
         <v>10968</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -4133,13 +4139,13 @@
         <v>22344</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -4148,13 +4154,13 @@
         <v>33312</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4175,13 @@
         <v>104078</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>116</v>
@@ -4184,10 +4190,10 @@
         <v>127607</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>258</v>
@@ -4196,7 +4202,7 @@
         <v>227</v>
       </c>
       <c r="N8" s="7">
-        <v>231685</v>
+        <v>231686</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>259</v>
@@ -4247,7 +4253,7 @@
         <v>259</v>
       </c>
       <c r="N9" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -4273,13 +4279,13 @@
         <v>12051</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>263</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -4288,13 +4294,13 @@
         <v>24053</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -4303,13 +4309,13 @@
         <v>36103</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4330,13 @@
         <v>152890</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>115</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>164</v>
@@ -4339,13 +4345,13 @@
         <v>195110</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>325</v>
@@ -4354,13 +4360,13 @@
         <v>348001</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4434,13 @@
         <v>9654</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -4443,13 +4449,13 @@
         <v>21734</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -4458,13 +4464,13 @@
         <v>31387</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4485,13 @@
         <v>105381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>101</v>
@@ -4494,13 +4500,13 @@
         <v>120862</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>205</v>
@@ -4509,13 +4515,13 @@
         <v>226244</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4589,13 @@
         <v>11415</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4598,13 +4604,13 @@
         <v>29298</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -4616,10 +4622,10 @@
         <v>33</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4640,13 @@
         <v>163203</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>176</v>
@@ -4649,13 +4655,13 @@
         <v>213483</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>354</v>
@@ -4667,10 +4673,10 @@
         <v>42</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4744,13 @@
         <v>47855</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>52</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -4753,13 +4759,13 @@
         <v>102686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>133</v>
@@ -4768,13 +4774,13 @@
         <v>150541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4795,13 @@
         <v>543473</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>61</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>575</v>
@@ -4804,13 +4810,13 @@
         <v>675245</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>1149</v>
@@ -4819,13 +4825,13 @@
         <v>1218718</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,7 +4887,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4902,7 +4908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97F169A-05AB-42F2-BAE0-054DFB23B2E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E2F6D6-D0EA-49C3-AD7D-B6AC365DFE6A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4919,7 +4925,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5026,13 +5032,13 @@
         <v>1441</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5041,10 +5047,10 @@
         <v>8470</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>334</v>
@@ -5056,7 +5062,7 @@
         <v>9910</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>335</v>
@@ -5080,10 +5086,10 @@
         <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>91</v>
@@ -5092,13 +5098,13 @@
         <v>36951</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>135</v>
@@ -5107,13 +5113,13 @@
         <v>65175</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5187,13 @@
         <v>17408</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>111</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>62</v>
@@ -5196,13 +5202,13 @@
         <v>26581</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>89</v>
@@ -5211,13 +5217,13 @@
         <v>43989</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>347</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5238,13 @@
         <v>107569</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>272</v>
@@ -5247,13 +5253,13 @@
         <v>120638</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>451</v>
@@ -5262,13 +5268,13 @@
         <v>228207</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5342,13 @@
         <v>16094</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -5351,13 +5357,13 @@
         <v>40147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -5366,13 +5372,13 @@
         <v>56240</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5393,13 @@
         <v>157752</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>373</v>
@@ -5402,13 +5408,13 @@
         <v>202363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M11" s="7">
         <v>603</v>
@@ -5417,13 +5423,13 @@
         <v>360116</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5497,13 @@
         <v>7785</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -5506,13 +5512,13 @@
         <v>22503</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -5521,13 +5527,13 @@
         <v>30288</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,13 +5548,13 @@
         <v>140405</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>254</v>
@@ -5557,13 +5563,13 @@
         <v>258611</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>438</v>
@@ -5572,13 +5578,13 @@
         <v>399017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>386</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5652,13 @@
         <v>10589</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -5661,13 +5667,13 @@
         <v>35711</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -5676,13 +5682,13 @@
         <v>46300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5703,13 @@
         <v>209655</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>466</v>
@@ -5712,13 +5718,13 @@
         <v>273179</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>777</v>
@@ -5727,13 +5733,13 @@
         <v>482834</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,10 +5807,10 @@
         <v>53316</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>88</v>
@@ -5816,13 +5822,13 @@
         <v>133411</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M19" s="7">
         <v>328</v>
@@ -5831,13 +5837,13 @@
         <v>186728</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5858,13 @@
         <v>643605</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>1456</v>
@@ -5867,13 +5873,13 @@
         <v>891742</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>2404</v>
@@ -5882,13 +5888,13 @@
         <v>1535346</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,7 +5950,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5411-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D62E06E-AF8F-4923-B5D8-254663E5223A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E60778DF-F80C-45EE-870F-12F4FBD44413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{21884108-151E-4410-9F80-6970FF89E1D0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0F6F598-A0CD-45A3-951D-DAD4DE1C0975}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="425">
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,22 +80,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>19,99%</t>
+    <t>20,59%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>24,43%</t>
+    <t>24,53%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>16,17%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -104,7 +101,7 @@
     <t>95,85%</t>
   </si>
   <si>
-    <t>80,01%</t>
+    <t>79,41%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,16 +110,13 @@
     <t>91,71%</t>
   </si>
   <si>
-    <t>75,57%</t>
+    <t>75,47%</t>
   </si>
   <si>
     <t>93,87%</t>
   </si>
   <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>83,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,1180 +128,1192 @@
     <t>11,48%</t>
   </si>
   <si>
-    <t>6,19%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>19,03%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>83,84%</t>
   </si>
   <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>89,1%</t>
   </si>
   <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>88,44%</t>
   </si>
   <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>91,25%</t>
   </si>
   <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
   </si>
   <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>6,12%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>8,7%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
   <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>92,35%</t>
   </si>
   <si>
-    <t>93,88%</t>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>91,3%</t>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
   </si>
   <si>
     <t>89,16%</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68713381-ECE7-46FD-A62F-6B5C0C47E5E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0367AC-8B90-48FC-9F54-700EAFDACE77}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1876,16 +1882,16 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>24</v>
@@ -1894,13 +1900,13 @@
         <v>25280</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -1909,13 +1915,13 @@
         <v>22309</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -1924,13 +1930,13 @@
         <v>47589</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,13 +1951,13 @@
         <v>26374</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -1960,13 +1966,13 @@
         <v>24325</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -1975,18 +1981,18 @@
         <v>50699</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1998,13 +2004,13 @@
         <v>10172</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -2013,13 +2019,13 @@
         <v>12203</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -2028,19 +2034,19 @@
         <v>22375</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>83</v>
@@ -2049,13 +2055,13 @@
         <v>78443</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>112</v>
@@ -2064,13 +2070,13 @@
         <v>113008</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>195</v>
@@ -2079,13 +2085,13 @@
         <v>191450</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,13 +2106,13 @@
         <v>88615</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>123</v>
@@ -2115,13 +2121,13 @@
         <v>125211</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>217</v>
@@ -2130,18 +2136,18 @@
         <v>213825</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2153,13 +2159,13 @@
         <v>5841</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -2168,13 +2174,13 @@
         <v>18959</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -2183,19 +2189,19 @@
         <v>24801</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>140</v>
@@ -2204,13 +2210,13 @@
         <v>140048</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>153</v>
@@ -2219,13 +2225,13 @@
         <v>163721</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>293</v>
@@ -2234,13 +2240,13 @@
         <v>303767</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,13 +2261,13 @@
         <v>145889</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>170</v>
@@ -2270,13 +2276,13 @@
         <v>182680</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>316</v>
@@ -2285,18 +2291,18 @@
         <v>328568</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2308,13 +2314,13 @@
         <v>1882</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -2323,13 +2329,13 @@
         <v>11801</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2338,19 +2344,19 @@
         <v>13683</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>100</v>
@@ -2359,13 +2365,13 @@
         <v>102489</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
         <v>129</v>
@@ -2374,13 +2380,13 @@
         <v>124049</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>229</v>
@@ -2389,13 +2395,13 @@
         <v>226538</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2416,13 @@
         <v>104371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>140</v>
@@ -2425,13 +2431,13 @@
         <v>135850</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>242</v>
@@ -2440,18 +2446,18 @@
         <v>240221</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2463,13 +2469,13 @@
         <v>8942</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -2478,13 +2484,13 @@
         <v>19852</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -2493,19 +2499,19 @@
         <v>28794</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>146</v>
@@ -2514,13 +2520,13 @@
         <v>128275</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>182</v>
@@ -2529,13 +2535,13 @@
         <v>188925</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>328</v>
@@ -2544,10 +2550,10 @@
         <v>317201</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>100</v>
@@ -2565,13 +2571,13 @@
         <v>137217</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>200</v>
@@ -2580,13 +2586,13 @@
         <v>208777</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>356</v>
@@ -2595,13 +2601,13 @@
         <v>345995</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,7 +2666,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>493</v>
@@ -2720,13 +2726,13 @@
         <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>661</v>
@@ -2735,13 +2741,13 @@
         <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1184</v>
@@ -2750,13 +2756,13 @@
         <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,7 +2788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A585D9DF-5988-4784-A7B7-C325F9950A39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21766EE3-FA07-44DB-9C14-E61A7C709E47}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2948,7 +2954,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>22</v>
@@ -2963,7 +2969,7 @@
         <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -3008,13 +3014,13 @@
         <v>21198</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -3023,13 +3029,13 @@
         <v>25194</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -3038,18 +3044,18 @@
         <v>46392</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3103,7 +3109,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>97</v>
@@ -3163,13 +3169,13 @@
         <v>118350</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>134</v>
@@ -3178,13 +3184,13 @@
         <v>141592</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>239</v>
@@ -3193,18 +3199,18 @@
         <v>259942</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3258,7 +3264,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>118</v>
@@ -3318,13 +3324,13 @@
         <v>154878</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>177</v>
@@ -3333,13 +3339,13 @@
         <v>191420</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>315</v>
@@ -3348,18 +3354,18 @@
         <v>346298</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3413,7 +3419,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>82</v>
@@ -3473,13 +3479,13 @@
         <v>103598</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>129</v>
@@ -3488,13 +3494,13 @@
         <v>141019</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>219</v>
@@ -3503,18 +3509,18 @@
         <v>244617</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3544,10 +3550,10 @@
         <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -3556,19 +3562,19 @@
         <v>57944</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>132</v>
@@ -3577,13 +3583,13 @@
         <v>144222</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -3592,13 +3598,13 @@
         <v>203197</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>325</v>
@@ -3607,13 +3613,13 @@
         <v>347419</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3634,13 @@
         <v>161613</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>231</v>
@@ -3643,13 +3649,13 @@
         <v>243750</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>378</v>
@@ -3658,13 +3664,13 @@
         <v>405363</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3687,13 @@
         <v>61456</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>149</v>
@@ -3696,13 +3702,13 @@
         <v>163082</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -3711,19 +3717,19 @@
         <v>224538</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>451</v>
@@ -3732,13 +3738,13 @@
         <v>498181</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>545</v>
@@ -3747,13 +3753,13 @@
         <v>579893</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>996</v>
@@ -3762,13 +3768,13 @@
         <v>1078074</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3789,13 @@
         <v>559637</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>694</v>
@@ -3798,13 +3804,13 @@
         <v>742975</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1198</v>
@@ -3813,13 +3819,13 @@
         <v>1302612</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,7 +3851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70848D97-1303-4FCA-BD40-7F8F13A65D89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2476AFF8-80F3-4464-A531-0BDB4E9448D4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3862,7 +3868,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3969,13 +3975,13 @@
         <v>3767</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3984,13 +3990,13 @@
         <v>5258</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3999,19 +4005,19 @@
         <v>9025</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>20</v>
@@ -4020,13 +4026,13 @@
         <v>17921</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4035,13 +4041,13 @@
         <v>18181</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -4050,13 +4056,13 @@
         <v>36102</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4077,13 @@
         <v>21688</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -4086,13 +4092,13 @@
         <v>23439</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -4101,18 +4107,18 @@
         <v>45127</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4124,13 +4130,13 @@
         <v>10968</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -4139,13 +4145,13 @@
         <v>22344</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -4154,19 +4160,19 @@
         <v>33312</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>111</v>
@@ -4175,13 +4181,13 @@
         <v>104078</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>116</v>
@@ -4190,28 +4196,28 @@
         <v>127607</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>227</v>
       </c>
       <c r="N8" s="7">
-        <v>231686</v>
+        <v>231685</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4232,13 @@
         <v>115046</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>135</v>
@@ -4241,33 +4247,33 @@
         <v>149951</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>259</v>
       </c>
       <c r="N9" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4282,10 +4288,10 @@
         <v>105</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -4294,13 +4300,13 @@
         <v>24053</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -4309,19 +4315,19 @@
         <v>36103</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>161</v>
@@ -4333,7 +4339,7 @@
         <v>115</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>269</v>
@@ -4381,13 +4387,13 @@
         <v>164941</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>182</v>
@@ -4396,13 +4402,13 @@
         <v>219163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>357</v>
@@ -4411,18 +4417,18 @@
         <v>384104</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4476,7 +4482,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>104</v>
@@ -4536,13 +4542,13 @@
         <v>115035</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>118</v>
@@ -4551,13 +4557,13 @@
         <v>142596</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>232</v>
@@ -4566,18 +4572,18 @@
         <v>257631</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4619,7 +4625,7 @@
         <v>40714</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>300</v>
@@ -4631,7 +4637,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>178</v>
@@ -4670,7 +4676,7 @@
         <v>376686</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>308</v>
@@ -4691,13 +4697,13 @@
         <v>174618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>198</v>
@@ -4706,13 +4712,13 @@
         <v>242781</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>388</v>
@@ -4721,13 +4727,13 @@
         <v>417400</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,7 +4756,7 @@
         <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>144</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -4759,13 +4765,13 @@
         <v>102686</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>33</v>
       </c>
       <c r="M19" s="7">
         <v>133</v>
@@ -4774,19 +4780,19 @@
         <v>150541</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>574</v>
@@ -4795,13 +4801,13 @@
         <v>543473</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>154</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>575</v>
@@ -4810,13 +4816,13 @@
         <v>675245</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>1149</v>
@@ -4825,13 +4831,13 @@
         <v>1218718</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4852,13 @@
         <v>591328</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>655</v>
@@ -4861,13 +4867,13 @@
         <v>777931</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1282</v>
@@ -4876,13 +4882,13 @@
         <v>1369259</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,7 +4914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E2F6D6-D0EA-49C3-AD7D-B6AC365DFE6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F44346-6F65-4802-8204-6A33E17C7435}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4925,7 +4931,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5032,13 +5038,13 @@
         <v>1441</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5047,13 +5053,13 @@
         <v>8470</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -5062,19 +5068,19 @@
         <v>9910</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>44</v>
@@ -5083,13 +5089,13 @@
         <v>28223</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>91</v>
@@ -5098,13 +5104,13 @@
         <v>36951</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>135</v>
@@ -5113,13 +5119,13 @@
         <v>65175</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5140,13 @@
         <v>29664</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>112</v>
@@ -5149,13 +5155,13 @@
         <v>45421</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>159</v>
@@ -5164,18 +5170,18 @@
         <v>75085</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5187,13 +5193,13 @@
         <v>17408</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>217</v>
+        <v>343</v>
       </c>
       <c r="H7" s="7">
         <v>62</v>
@@ -5202,13 +5208,13 @@
         <v>26581</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>89</v>
@@ -5217,19 +5223,19 @@
         <v>43989</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>179</v>
@@ -5238,13 +5244,13 @@
         <v>107569</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>272</v>
@@ -5253,13 +5259,13 @@
         <v>120638</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>451</v>
@@ -5268,13 +5274,13 @@
         <v>228207</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>354</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5295,13 @@
         <v>124977</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>334</v>
@@ -5304,13 +5310,13 @@
         <v>147219</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>540</v>
@@ -5319,18 +5325,18 @@
         <v>272196</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5348,7 +5354,7 @@
         <v>358</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -5357,13 +5363,13 @@
         <v>40147</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -5372,19 +5378,19 @@
         <v>56240</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>230</v>
@@ -5393,13 +5399,13 @@
         <v>157752</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>373</v>
@@ -5408,13 +5414,13 @@
         <v>202363</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M11" s="7">
         <v>603</v>
@@ -5423,13 +5429,13 @@
         <v>360116</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5450,13 @@
         <v>173846</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>448</v>
@@ -5459,13 +5465,13 @@
         <v>242510</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>702</v>
@@ -5474,18 +5480,18 @@
         <v>416356</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5497,13 +5503,13 @@
         <v>7785</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -5512,13 +5518,13 @@
         <v>22503</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -5527,19 +5533,19 @@
         <v>30288</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>184</v>
@@ -5548,13 +5554,13 @@
         <v>140405</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H14" s="7">
         <v>254</v>
@@ -5563,13 +5569,13 @@
         <v>258611</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M14" s="7">
         <v>438</v>
@@ -5578,13 +5584,13 @@
         <v>399017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>386</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,13 +5605,13 @@
         <v>148190</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>288</v>
@@ -5614,13 +5620,13 @@
         <v>281114</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>481</v>
@@ -5629,18 +5635,18 @@
         <v>429305</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5652,13 +5658,13 @@
         <v>10589</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -5667,13 +5673,13 @@
         <v>35711</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -5682,19 +5688,19 @@
         <v>46300</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>311</v>
@@ -5703,13 +5709,13 @@
         <v>209655</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>466</v>
@@ -5718,13 +5724,13 @@
         <v>273179</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>777</v>
@@ -5733,13 +5739,13 @@
         <v>482834</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5760,13 @@
         <v>220244</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>523</v>
@@ -5769,13 +5775,13 @@
         <v>308890</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>850</v>
@@ -5784,13 +5790,13 @@
         <v>529134</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5813,13 @@
         <v>53316</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H19" s="7">
         <v>249</v>
@@ -5822,13 +5828,13 @@
         <v>133411</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M19" s="7">
         <v>328</v>
@@ -5849,7 +5855,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>948</v>
@@ -5861,10 +5867,10 @@
         <v>416</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>417</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H20" s="7">
         <v>1456</v>
@@ -5873,13 +5879,13 @@
         <v>891742</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>288</v>
+        <v>420</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>2404</v>
@@ -5888,13 +5894,13 @@
         <v>1535346</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,13 +5915,13 @@
         <v>696921</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>1705</v>
@@ -5924,13 +5930,13 @@
         <v>1025153</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>2732</v>
@@ -5939,13 +5945,13 @@
         <v>1722074</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5411-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E60778DF-F80C-45EE-870F-12F4FBD44413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A0D9D2E-B6C8-470D-B0A8-992E1D2526B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0F6F598-A0CD-45A3-951D-DAD4DE1C0975}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9B508BEB-4CF7-4F1D-A271-FCD1B79E0BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,1252 +68,1081 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Necesita ayuda</t>
   </si>
   <si>
-    <t>4,15%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>5,44%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
   </si>
   <si>
     <t>11,33%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>88,67%</t>
   </si>
   <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
 </sst>
 </file>
@@ -1725,8 +1554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0367AC-8B90-48FC-9F54-700EAFDACE77}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E397DAE5-2842-49A5-86E4-4BDD3A0645D5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1843,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>1094</v>
+        <v>11266</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1858,85 +1687,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>2016</v>
+        <v>14219</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>3110</v>
+        <v>25485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>107</v>
+      </c>
+      <c r="D5" s="7">
+        <v>103723</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>138</v>
+      </c>
+      <c r="I5" s="7">
+        <v>135316</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="7">
-        <v>25280</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="7">
-        <v>22309</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="M5" s="7">
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="N5" s="7">
-        <v>47589</v>
+        <v>239039</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,153 +1774,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="D6" s="7">
-        <v>26374</v>
+        <v>114989</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="I6" s="7">
-        <v>24325</v>
+        <v>149535</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="N6" s="7">
-        <v>50699</v>
+        <v>264524</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>10172</v>
+        <v>5841</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>12203</v>
+        <v>18959</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>22375</v>
+        <v>24801</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="D8" s="7">
-        <v>78443</v>
+        <v>140048</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="I8" s="7">
-        <v>113008</v>
+        <v>163721</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="N8" s="7">
-        <v>191450</v>
+        <v>303767</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,153 +1929,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="D9" s="7">
-        <v>88615</v>
+        <v>145889</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="I9" s="7">
-        <v>125211</v>
+        <v>182680</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="N9" s="7">
-        <v>213825</v>
+        <v>328568</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>5841</v>
+        <v>1882</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>18959</v>
+        <v>11801</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>24801</v>
+        <v>13683</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D11" s="7">
-        <v>140048</v>
+        <v>102489</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="I11" s="7">
-        <v>163721</v>
+        <v>124049</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="N11" s="7">
-        <v>303767</v>
+        <v>226538</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,153 +2084,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="D12" s="7">
-        <v>145889</v>
+        <v>104371</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="I12" s="7">
-        <v>182680</v>
+        <v>135850</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="N12" s="7">
-        <v>328568</v>
+        <v>240221</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>1882</v>
+        <v>8942</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>11801</v>
+        <v>19852</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>13683</v>
+        <v>28794</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="D14" s="7">
-        <v>102489</v>
+        <v>128275</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="I14" s="7">
-        <v>124049</v>
+        <v>188925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>229</v>
+        <v>328</v>
       </c>
       <c r="N14" s="7">
-        <v>226538</v>
+        <v>317201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,153 +2239,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="D15" s="7">
-        <v>104371</v>
+        <v>137217</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="I15" s="7">
-        <v>135850</v>
+        <v>208777</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>242</v>
+        <v>356</v>
       </c>
       <c r="N15" s="7">
-        <v>240221</v>
+        <v>345995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>8942</v>
+        <v>27931</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>19852</v>
+        <v>64832</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="N16" s="7">
-        <v>28794</v>
+        <v>92763</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>146</v>
+        <v>493</v>
       </c>
       <c r="D17" s="7">
-        <v>128275</v>
+        <v>474535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>182</v>
+        <v>602</v>
       </c>
       <c r="I17" s="7">
-        <v>188925</v>
+        <v>612010</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>328</v>
+        <v>1095</v>
       </c>
       <c r="N17" s="7">
-        <v>317201</v>
+        <v>1086545</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,217 +2394,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>156</v>
+        <v>523</v>
       </c>
       <c r="D18" s="7">
-        <v>137217</v>
+        <v>502466</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>200</v>
+        <v>661</v>
       </c>
       <c r="I18" s="7">
-        <v>208777</v>
+        <v>676842</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>356</v>
+        <v>1184</v>
       </c>
       <c r="N18" s="7">
-        <v>345995</v>
+        <v>1179308</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7">
-        <v>27931</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="7">
-        <v>59</v>
-      </c>
-      <c r="I19" s="7">
-        <v>64832</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="7">
-        <v>89</v>
-      </c>
-      <c r="N19" s="7">
-        <v>92763</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>493</v>
-      </c>
-      <c r="D20" s="7">
-        <v>474535</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="7">
-        <v>602</v>
-      </c>
-      <c r="I20" s="7">
-        <v>612010</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1095</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1086545</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>523</v>
-      </c>
-      <c r="D21" s="7">
-        <v>502466</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>661</v>
-      </c>
-      <c r="I21" s="7">
-        <v>676842</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1184</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1179308</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2788,8 +2461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21766EE3-FA07-44DB-9C14-E61A7C709E47}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84216E1-6549-470C-BCF2-AC2F8BF63416}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2805,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2906,100 +2579,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>1780</v>
+        <v>10346</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I4" s="7">
-        <v>3476</v>
+        <v>32207</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="N4" s="7">
-        <v>5256</v>
+        <v>42554</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="D5" s="7">
-        <v>19418</v>
+        <v>129201</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="I5" s="7">
-        <v>21718</v>
+        <v>134580</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="N5" s="7">
-        <v>41136</v>
+        <v>263780</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,153 +2681,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="D6" s="7">
-        <v>21198</v>
+        <v>139547</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="I6" s="7">
-        <v>25194</v>
+        <v>166787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="N6" s="7">
-        <v>46392</v>
+        <v>306334</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>8566</v>
+        <v>22877</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>28732</v>
+        <v>53522</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N7" s="7">
-        <v>37298</v>
+        <v>76399</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D8" s="7">
-        <v>109784</v>
+        <v>132001</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="I8" s="7">
-        <v>112860</v>
+        <v>137898</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="N8" s="7">
-        <v>222644</v>
+        <v>269899</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,153 +2836,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="D9" s="7">
-        <v>118350</v>
+        <v>154878</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="I9" s="7">
-        <v>141592</v>
+        <v>191420</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="N9" s="7">
-        <v>259942</v>
+        <v>346298</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>22877</v>
+        <v>10842</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>53522</v>
+        <v>36800</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="N10" s="7">
-        <v>76399</v>
+        <v>47642</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D11" s="7">
-        <v>132001</v>
+        <v>92756</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="I11" s="7">
-        <v>137898</v>
+        <v>104219</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c r="N11" s="7">
-        <v>269899</v>
+        <v>196975</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,153 +2991,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="D12" s="7">
-        <v>154878</v>
+        <v>103598</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="I12" s="7">
-        <v>191420</v>
+        <v>141019</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>315</v>
+        <v>219</v>
       </c>
       <c r="N12" s="7">
-        <v>346298</v>
+        <v>244617</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>10842</v>
+        <v>17391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I13" s="7">
-        <v>36800</v>
+        <v>40553</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="N13" s="7">
-        <v>47642</v>
+        <v>57944</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="D14" s="7">
-        <v>92756</v>
+        <v>144222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="I14" s="7">
-        <v>104219</v>
+        <v>203197</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
-        <v>178</v>
+        <v>325</v>
       </c>
       <c r="N14" s="7">
-        <v>196975</v>
+        <v>347419</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,153 +3146,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="D15" s="7">
-        <v>103598</v>
+        <v>161613</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="I15" s="7">
-        <v>141019</v>
+        <v>243750</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>219</v>
+        <v>378</v>
       </c>
       <c r="N15" s="7">
-        <v>244617</v>
+        <v>405363</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D16" s="7">
-        <v>17391</v>
+        <v>61456</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="I16" s="7">
-        <v>40553</v>
+        <v>163082</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="N16" s="7">
-        <v>57944</v>
+        <v>224538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>132</v>
+        <v>451</v>
       </c>
       <c r="D17" s="7">
-        <v>144222</v>
+        <v>498181</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
+        <v>545</v>
+      </c>
+      <c r="I17" s="7">
+        <v>579893</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M17" s="7">
+        <v>996</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1078074</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="I17" s="7">
-        <v>203197</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M17" s="7">
-        <v>325</v>
-      </c>
-      <c r="N17" s="7">
-        <v>347419</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,217 +3301,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>147</v>
+        <v>504</v>
       </c>
       <c r="D18" s="7">
-        <v>161613</v>
+        <v>559637</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>231</v>
+        <v>694</v>
       </c>
       <c r="I18" s="7">
-        <v>243750</v>
+        <v>742975</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>378</v>
+        <v>1198</v>
       </c>
       <c r="N18" s="7">
-        <v>405363</v>
+        <v>1302612</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>53</v>
-      </c>
-      <c r="D19" s="7">
-        <v>61456</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="7">
-        <v>149</v>
-      </c>
-      <c r="I19" s="7">
-        <v>163082</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M19" s="7">
-        <v>202</v>
-      </c>
-      <c r="N19" s="7">
-        <v>224538</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>451</v>
-      </c>
-      <c r="D20" s="7">
-        <v>498181</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H20" s="7">
-        <v>545</v>
-      </c>
-      <c r="I20" s="7">
-        <v>579893</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="7">
-        <v>996</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1078074</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>504</v>
-      </c>
-      <c r="D21" s="7">
-        <v>559637</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>694</v>
-      </c>
-      <c r="I21" s="7">
-        <v>742975</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1198</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1302612</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3851,8 +3368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2476AFF8-80F3-4464-A531-0BDB4E9448D4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A079BA-846A-471D-A34B-8CAFE4283756}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3868,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3969,100 +3486,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>3767</v>
+        <v>14735</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>5258</v>
+        <v>27602</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="N4" s="7">
-        <v>9025</v>
+        <v>42337</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="D5" s="7">
-        <v>17921</v>
+        <v>121999</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I5" s="7">
-        <v>18181</v>
+        <v>145789</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="N5" s="7">
-        <v>36102</v>
+        <v>267788</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,153 +3588,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="D6" s="7">
-        <v>21688</v>
+        <v>136734</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I6" s="7">
-        <v>23439</v>
+        <v>173391</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>46</v>
+        <v>305</v>
       </c>
       <c r="N6" s="7">
-        <v>45127</v>
+        <v>310125</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>10968</v>
+        <v>12051</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>90</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>22344</v>
+        <v>24053</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>33312</v>
+        <v>36103</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="D8" s="7">
-        <v>104078</v>
+        <v>152890</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="I8" s="7">
-        <v>127607</v>
+        <v>195110</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
+        <v>325</v>
+      </c>
+      <c r="N8" s="7">
+        <v>348001</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="N8" s="7">
-        <v>231685</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,153 +3743,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="D9" s="7">
-        <v>115046</v>
+        <v>164941</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="I9" s="7">
-        <v>149951</v>
+        <v>219163</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>259</v>
+        <v>357</v>
       </c>
       <c r="N9" s="7">
-        <v>264997</v>
+        <v>384104</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>12051</v>
+        <v>9654</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>105</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>24053</v>
+        <v>21734</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>36103</v>
+        <v>31387</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="D11" s="7">
-        <v>152890</v>
+        <v>105381</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="I11" s="7">
-        <v>195110</v>
+        <v>120862</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>325</v>
+        <v>205</v>
       </c>
       <c r="N11" s="7">
-        <v>348001</v>
+        <v>226244</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,153 +3898,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="D12" s="7">
-        <v>164941</v>
+        <v>115035</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="I12" s="7">
-        <v>219163</v>
+        <v>142596</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>357</v>
+        <v>232</v>
       </c>
       <c r="N12" s="7">
-        <v>384104</v>
+        <v>257631</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>9654</v>
+        <v>11415</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>21734</v>
+        <v>29298</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>31387</v>
+        <v>40714</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="D14" s="7">
-        <v>105381</v>
+        <v>163203</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="I14" s="7">
-        <v>120862</v>
+        <v>213483</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>205</v>
+        <v>354</v>
       </c>
       <c r="N14" s="7">
-        <v>226244</v>
+        <v>376686</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,153 +4053,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="D15" s="7">
-        <v>115035</v>
+        <v>174618</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="I15" s="7">
-        <v>142596</v>
+        <v>242781</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>232</v>
+        <v>388</v>
       </c>
       <c r="N15" s="7">
-        <v>257631</v>
+        <v>417400</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D16" s="7">
-        <v>11415</v>
+        <v>47855</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I16" s="7">
-        <v>29298</v>
+        <v>102686</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="N16" s="7">
-        <v>40714</v>
+        <v>150541</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>178</v>
+        <v>574</v>
       </c>
       <c r="D17" s="7">
-        <v>163203</v>
+        <v>543473</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
-        <v>176</v>
+        <v>575</v>
       </c>
       <c r="I17" s="7">
-        <v>213483</v>
+        <v>675245</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
-        <v>354</v>
+        <v>1149</v>
       </c>
       <c r="N17" s="7">
-        <v>376686</v>
+        <v>1218718</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,217 +4208,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>190</v>
+        <v>627</v>
       </c>
       <c r="D18" s="7">
-        <v>174618</v>
+        <v>591328</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>198</v>
+        <v>655</v>
       </c>
       <c r="I18" s="7">
-        <v>242781</v>
+        <v>777931</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>388</v>
+        <v>1282</v>
       </c>
       <c r="N18" s="7">
-        <v>417400</v>
+        <v>1369259</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>53</v>
-      </c>
-      <c r="D19" s="7">
-        <v>47855</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H19" s="7">
-        <v>80</v>
-      </c>
-      <c r="I19" s="7">
-        <v>102686</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="7">
-        <v>133</v>
-      </c>
-      <c r="N19" s="7">
-        <v>150541</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>574</v>
-      </c>
-      <c r="D20" s="7">
-        <v>543473</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H20" s="7">
-        <v>575</v>
-      </c>
-      <c r="I20" s="7">
-        <v>675245</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1149</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1218718</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>627</v>
-      </c>
-      <c r="D21" s="7">
-        <v>591328</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>655</v>
-      </c>
-      <c r="I21" s="7">
-        <v>777931</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1282</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1369259</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4914,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F44346-6F65-4802-8204-6A33E17C7435}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D1EE9B-E9A6-49CE-850F-B836A59AB57C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4931,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5032,100 +4393,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>1441</v>
+        <v>17986</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I4" s="7">
-        <v>8470</v>
+        <v>32618</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="N4" s="7">
-        <v>9910</v>
+        <v>50605</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="D5" s="7">
-        <v>28223</v>
+        <v>130097</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>91</v>
+        <v>363</v>
       </c>
       <c r="I5" s="7">
-        <v>36951</v>
+        <v>146545</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>135</v>
+        <v>586</v>
       </c>
       <c r="N5" s="7">
-        <v>65175</v>
+        <v>276641</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,153 +4495,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="D6" s="7">
-        <v>29664</v>
+        <v>148083</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>112</v>
+        <v>446</v>
       </c>
       <c r="I6" s="7">
-        <v>45421</v>
+        <v>179163</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>159</v>
+        <v>699</v>
       </c>
       <c r="N6" s="7">
-        <v>75085</v>
+        <v>327246</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>17408</v>
+        <v>14808</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>342</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>201</v>
       </c>
       <c r="H7" s="7">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I7" s="7">
-        <v>26581</v>
+        <v>36362</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="N7" s="7">
-        <v>43989</v>
+        <v>51170</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="D8" s="7">
-        <v>107569</v>
+        <v>145306</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>61</v>
       </c>
       <c r="H8" s="7">
-        <v>272</v>
+        <v>373</v>
       </c>
       <c r="I8" s="7">
-        <v>120638</v>
+        <v>182033</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
-        <v>451</v>
+        <v>603</v>
       </c>
       <c r="N8" s="7">
-        <v>228207</v>
+        <v>327339</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,153 +4650,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="D9" s="7">
-        <v>124977</v>
+        <v>160114</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>334</v>
+        <v>448</v>
       </c>
       <c r="I9" s="7">
-        <v>147219</v>
+        <v>218395</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>540</v>
+        <v>702</v>
       </c>
       <c r="N9" s="7">
-        <v>272196</v>
+        <v>378509</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>16094</v>
+        <v>7057</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>40147</v>
+        <v>20131</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="M10" s="7">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>56240</v>
+        <v>27189</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="D11" s="7">
-        <v>157752</v>
+        <v>129895</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>326</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="H11" s="7">
-        <v>373</v>
+        <v>254</v>
       </c>
       <c r="I11" s="7">
-        <v>202363</v>
+        <v>340125</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="M11" s="7">
-        <v>603</v>
+        <v>438</v>
       </c>
       <c r="N11" s="7">
-        <v>360116</v>
+        <v>470020</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,153 +4805,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="D12" s="7">
-        <v>173846</v>
+        <v>136952</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>448</v>
+        <v>288</v>
       </c>
       <c r="I12" s="7">
-        <v>242510</v>
+        <v>360256</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>702</v>
+        <v>481</v>
       </c>
       <c r="N12" s="7">
-        <v>416356</v>
+        <v>497209</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>7785</v>
+        <v>9799</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I13" s="7">
-        <v>22503</v>
+        <v>31160</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="N13" s="7">
-        <v>30288</v>
+        <v>40960</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>184</v>
+        <v>311</v>
       </c>
       <c r="D14" s="7">
-        <v>140405</v>
+        <v>195230</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
-        <v>254</v>
+        <v>466</v>
       </c>
       <c r="I14" s="7">
-        <v>258611</v>
+        <v>243863</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
-        <v>438</v>
+        <v>777</v>
       </c>
       <c r="N14" s="7">
-        <v>399017</v>
+        <v>439092</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,153 +4960,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>193</v>
+        <v>327</v>
       </c>
       <c r="D15" s="7">
-        <v>148190</v>
+        <v>205029</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>288</v>
+        <v>523</v>
       </c>
       <c r="I15" s="7">
-        <v>281114</v>
+        <v>275023</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>481</v>
+        <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>429305</v>
+        <v>480052</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="D16" s="7">
-        <v>10589</v>
+        <v>49651</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="I16" s="7">
-        <v>35711</v>
+        <v>120272</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="N16" s="7">
-        <v>46300</v>
+        <v>169923</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>311</v>
+        <v>948</v>
       </c>
       <c r="D17" s="7">
-        <v>209655</v>
+        <v>600527</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
-        <v>466</v>
+        <v>1456</v>
       </c>
       <c r="I17" s="7">
-        <v>273179</v>
+        <v>912566</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
-        <v>777</v>
+        <v>2404</v>
       </c>
       <c r="N17" s="7">
-        <v>482834</v>
+        <v>1513093</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,217 +5115,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>327</v>
+        <v>1027</v>
       </c>
       <c r="D18" s="7">
-        <v>220244</v>
+        <v>650178</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>523</v>
+        <v>1705</v>
       </c>
       <c r="I18" s="7">
-        <v>308890</v>
+        <v>1032838</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>850</v>
+        <v>2732</v>
       </c>
       <c r="N18" s="7">
-        <v>529134</v>
+        <v>1683016</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>79</v>
-      </c>
-      <c r="D19" s="7">
-        <v>53316</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="H19" s="7">
-        <v>249</v>
-      </c>
-      <c r="I19" s="7">
-        <v>133411</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M19" s="7">
-        <v>328</v>
-      </c>
-      <c r="N19" s="7">
-        <v>186728</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>948</v>
-      </c>
-      <c r="D20" s="7">
-        <v>643605</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1456</v>
-      </c>
-      <c r="I20" s="7">
-        <v>891742</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2404</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1535346</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1027</v>
-      </c>
-      <c r="D21" s="7">
-        <v>696921</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1705</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1025153</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2732</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1722074</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
